--- a/ExcelFile.xlsx
+++ b/ExcelFile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>PRODUCT SALES</t>
   </si>
@@ -38,6 +38,9 @@
     <t>Potatoes and Onions</t>
   </si>
   <si>
+    <t>2023-02-09</t>
+  </si>
+  <si>
     <t>Fries</t>
   </si>
   <si>
@@ -48,13 +51,27 @@
   </si>
   <si>
     <t>Beef, Onion and Potatoes</t>
+  </si>
+  <si>
+    <t>MENU SALES</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Menu 1</t>
+  </si>
+  <si>
+    <t>Menu 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_(€* #,##0.00_);_(€* (#,##0.00);_(€* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11.0"/>
@@ -84,15 +101,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:F9"/>
+  <dimension ref="B2:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -130,28 +148,28 @@
       <c r="D5" t="n" s="0">
         <v>5.0</v>
       </c>
-      <c r="E5" t="n" s="0">
+      <c r="E5" t="n" s="1">
         <v>13.489999771118164</v>
       </c>
-      <c r="F5" t="n" s="0">
-        <v>67.44999694824219</v>
+      <c r="F5" s="1">
+        <f>D5*E5</f>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="E6" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="F6" t="n" s="0">
-        <v>12.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="E6" t="n" s="1">
+        <v>99.0</v>
+      </c>
+      <c r="F6" s="1">
+        <f>D6*E6</f>
       </c>
     </row>
     <row r="7">
@@ -162,13 +180,13 @@
         <v>9</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="E7" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="F7" t="n" s="0">
-        <v>25.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="E7" t="n" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F7" s="1">
+        <f>D7*E7</f>
       </c>
     </row>
     <row r="8">
@@ -179,13 +197,13 @@
         <v>10</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="E8" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="F8" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="E8" t="n" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F8" s="1">
+        <f>D8*E8</f>
       </c>
     </row>
     <row r="9">
@@ -196,13 +214,147 @@
         <v>11</v>
       </c>
       <c r="D9" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E9" t="n" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F9" s="1">
+        <f>D9*E9</f>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" t="n" s="0">
         <v>5.0</v>
       </c>
-      <c r="E9" t="n" s="0">
+      <c r="E10" t="n" s="1">
         <v>17.299999237060547</v>
       </c>
-      <c r="F9" t="n" s="0">
-        <v>86.5</v>
+      <c r="F10" s="1">
+        <f>D10*E10</f>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E11" t="n" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="F11" s="1">
+        <f>D11*E11</f>
+      </c>
+    </row>
+    <row r="12">
+      <c r="F12" s="1">
+        <f>SUM(F5:F11)</f>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="E17" t="n" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="F17" s="1">
+        <f>D17*E17</f>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E18" t="n" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="F18" s="1">
+        <f>D18*E18</f>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E19" t="n" s="1">
+        <v>99.0</v>
+      </c>
+      <c r="F19" s="1">
+        <f>D19*E19</f>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="E20" t="n" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F20" s="1">
+        <f>D20*E20</f>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21" s="1">
+        <f>SUM(F17:F20)</f>
       </c>
     </row>
   </sheetData>
